--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-472074.5502458896</v>
+        <v>-452326.1010279634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9220359.988131145</v>
+        <v>9264023.822008345</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>250.8678689323379</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>56.58473286581434</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.501314981288</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>272.4331389079489</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>100.176219543324</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>41.48733421943322</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,10 +1133,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>176.1071864365571</v>
+        <v>378.4804603970944</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>235.0874924779389</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,22 +1373,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>57.11134947921089</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>42.55120642932422</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>71.49788411901585</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>173.7040795765158</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>79.86552601431205</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1771,10 +1771,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>31.2883124111827</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.51678257079435</v>
       </c>
       <c r="I19" t="n">
-        <v>85.5532963163069</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.48898701015878</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>105.2234111170476</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>28.46824604904467</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>266.859480879742</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3047,7 +3047,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="T37" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742933988</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762362</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>865.1083144706856</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>426.965841654109</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>395.0964608689576</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>365.3621200676568</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.5350945172686</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.5350945172686</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>607.5718832905915</v>
       </c>
       <c r="L2" t="n">
-        <v>437.0247332457074</v>
+        <v>607.5718832905915</v>
       </c>
       <c r="M2" t="n">
-        <v>437.0247332457074</v>
+        <v>607.5718832905915</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0247332457074</v>
+        <v>607.5718832905915</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1256.083015301592</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1904.594147312592</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2451.092933271186</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024243</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.59512420808</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2316.527897081119</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2316.527897081119</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1953.910947014945</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1953.095896466383</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1699.69400865594</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1291.407884955594</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517777</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>452.1202237884199</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349732</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>262.9095202619269</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>179.5256818780885</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>94.14059214427239</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094246</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098155</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218279</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134401</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.3663652523201</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315408</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.8458429112338</v>
+        <v>713.0812255390556</v>
       </c>
       <c r="C4" t="n">
-        <v>173.8458429112338</v>
+        <v>540.5195140222805</v>
       </c>
       <c r="D4" t="n">
-        <v>173.8458429112338</v>
+        <v>540.5195140222805</v>
       </c>
       <c r="E4" t="n">
-        <v>173.8458429112338</v>
+        <v>540.5195140222805</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>363.8124599840368</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>198.2211850098644</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0648891858095</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>90.16707328613359</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>364.9255278572692</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>783.1354096252302</v>
       </c>
       <c r="M4" t="n">
-        <v>728.7550221176472</v>
+        <v>1242.619276806143</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1684.878079963788</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2104.547329189569</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2452.054223159911</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024243</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2620.246998024243</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2461.00562932224</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2215.126182900695</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1936.6931821538</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>1649.737674024231</v>
       </c>
       <c r="W4" t="n">
-        <v>592.4712490740719</v>
+        <v>1377.711269610522</v>
       </c>
       <c r="X4" t="n">
-        <v>347.0794944074844</v>
+        <v>1132.319514943935</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.8458429112338</v>
+        <v>904.8998442580428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1256.616618691218</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>818.474145874641</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>786.6047650894895</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>756.8704242881888</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>329.0029946973966</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1278.875785135721</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.5714734656729</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C7" t="n">
-        <v>301.0097619488978</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D7" t="n">
-        <v>135.1317691504205</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.201517537139</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X7" t="n">
-        <v>892.8097628705518</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.39009218466</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>306.5246854629554</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C8" t="n">
-        <v>272.4226166867828</v>
+        <v>489.6828676037779</v>
       </c>
       <c r="D8" t="n">
-        <v>94.53656978116955</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>64.80222897986879</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>40.97520342948058</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>40.97520342948058</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>40.97520342948058</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948058</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>865.469821841328</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>865.469821841328</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>865.469821841328</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>865.469821841328</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1372.53796428115</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.53796428115</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720972</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474029</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1965.108297657866</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1965.108297657866</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1965.108297657866</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1965.108297657866</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.252843068899</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>1141.11037964821</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>732.8242559478632</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207734</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574157</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039689</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309226</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470842</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326811</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948058</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993817</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561505</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959726</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213157</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005365</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.033364041362</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>947.4716525245868</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>781.5936597261095</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>611.8356559768469</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>435.128601938603</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>269.5373269644307</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>129.6351526548052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948058</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948058</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97520342948058</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>459.1850851974416</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>918.6689523783547</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1360.927755535999</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1780.597004761781</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474029</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474029</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2048.760171474029</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2048.760171474029</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2048.760171474029</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2048.760171474029</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1811.298057859949</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1539.271653446241</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1539.271653446241</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1311.851982760349</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2071.29898267652</v>
+        <v>1774.543262257833</v>
       </c>
       <c r="C11" t="n">
-        <v>1633.156509859944</v>
+        <v>1336.400789441256</v>
       </c>
       <c r="D11" t="n">
-        <v>1197.246725034388</v>
+        <v>1336.400789441256</v>
       </c>
       <c r="E11" t="n">
-        <v>763.4719801926831</v>
+        <v>902.6260445995515</v>
       </c>
       <c r="F11" t="n">
-        <v>763.4719801926831</v>
+        <v>474.7586150087592</v>
       </c>
       <c r="G11" t="n">
-        <v>362.0741488159468</v>
+        <v>73.36078363202307</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916306</v>
+        <v>73.36078363202307</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916306</v>
+        <v>72.94399425916308</v>
       </c>
       <c r="J11" t="n">
-        <v>508.1986817120809</v>
+        <v>72.94399425916308</v>
       </c>
       <c r="K11" t="n">
-        <v>1342.548973670259</v>
+        <v>907.294286217341</v>
       </c>
       <c r="L11" t="n">
-        <v>2245.230902627402</v>
+        <v>907.294286217341</v>
       </c>
       <c r="M11" t="n">
-        <v>2931.546862246501</v>
+        <v>907.294286217341</v>
       </c>
       <c r="N11" t="n">
-        <v>2931.546862246501</v>
+        <v>1809.976215174484</v>
       </c>
       <c r="O11" t="n">
-        <v>2931.546862246501</v>
+        <v>2712.658144131627</v>
       </c>
       <c r="P11" t="n">
-        <v>2931.546862246501</v>
+        <v>3100.700926999559</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.045648205096</v>
+        <v>3647.199712958154</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958153</v>
+        <v>3647.199712958154</v>
       </c>
       <c r="S11" t="n">
-        <v>3563.54783914199</v>
+        <v>3589.511481160971</v>
       </c>
       <c r="T11" t="n">
-        <v>3563.54783914199</v>
+        <v>3369.44425403401</v>
       </c>
       <c r="U11" t="n">
-        <v>3304.325536459007</v>
+        <v>3369.44425403401</v>
       </c>
       <c r="V11" t="n">
-        <v>2941.708586392833</v>
+        <v>3006.827303967836</v>
       </c>
       <c r="W11" t="n">
-        <v>2898.727569797556</v>
+        <v>2601.971849378869</v>
       </c>
       <c r="X11" t="n">
-        <v>2479.585106376867</v>
+        <v>2182.82938595818</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.29898267652</v>
+        <v>1774.543262257833</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916306</v>
+        <v>72.94399425916308</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962066</v>
+        <v>72.98019397496705</v>
       </c>
       <c r="J12" t="n">
-        <v>99.00766741962066</v>
+        <v>397.5385189411794</v>
       </c>
       <c r="K12" t="n">
-        <v>779.741187489998</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="L12" t="n">
-        <v>779.741187489998</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="M12" t="n">
-        <v>779.741187489998</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="N12" t="n">
-        <v>779.741187489998</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="O12" t="n">
-        <v>779.741187489998</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="P12" t="n">
-        <v>1599.464353969196</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="Q12" t="n">
         <v>1619.010977643632</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1012.099980561419</v>
+        <v>1054.464236090485</v>
       </c>
       <c r="C13" t="n">
-        <v>839.538269044644</v>
+        <v>881.9025245737095</v>
       </c>
       <c r="D13" t="n">
-        <v>673.6602762461667</v>
+        <v>716.0245317752322</v>
       </c>
       <c r="E13" t="n">
-        <v>503.9022724969039</v>
+        <v>643.8044468065294</v>
       </c>
       <c r="F13" t="n">
-        <v>327.1952184586601</v>
+        <v>467.0973927682857</v>
       </c>
       <c r="G13" t="n">
-        <v>161.6039434844877</v>
+        <v>301.5061177941133</v>
       </c>
       <c r="H13" t="n">
         <v>161.6039434844877</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916306</v>
+        <v>72.94399425916308</v>
       </c>
       <c r="J13" t="n">
         <v>159.5236794238529</v>
@@ -5224,25 +5224,25 @@
         <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.603604161963</v>
+        <v>2530.36223545996</v>
       </c>
       <c r="T13" t="n">
-        <v>2514.144937923058</v>
+        <v>2284.482789038415</v>
       </c>
       <c r="U13" t="n">
-        <v>2235.711937176163</v>
+        <v>2006.04978829152</v>
       </c>
       <c r="V13" t="n">
-        <v>1948.756429046594</v>
+        <v>1719.094280161951</v>
       </c>
       <c r="W13" t="n">
-        <v>1676.730024632885</v>
+        <v>1719.094280161951</v>
       </c>
       <c r="X13" t="n">
-        <v>1431.338269966298</v>
+        <v>1473.702525495363</v>
       </c>
       <c r="Y13" t="n">
-        <v>1203.918599280406</v>
+        <v>1246.282854809471</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,43 +5285,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5358,25 +5358,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q15" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1004.611946844417</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C16" t="n">
-        <v>832.0502353276421</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D16" t="n">
-        <v>666.1722425291648</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E16" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2506.656904206056</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2228.223903459162</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1941.268395329592</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1669.241990915884</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1423.850236249296</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1196.430565563404</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,49 +5513,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>388.1086717343214</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136697</v>
@@ -5595,25 +5595,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1039.174348374283</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C19" t="n">
-        <v>866.6126368575082</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D19" t="n">
-        <v>700.7346440590309</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E19" t="n">
-        <v>530.9766403097681</v>
+        <v>569.0946564588178</v>
       </c>
       <c r="F19" t="n">
-        <v>354.2695862715243</v>
+        <v>392.387602420574</v>
       </c>
       <c r="G19" t="n">
-        <v>188.678311297352</v>
+        <v>226.7963274464016</v>
       </c>
       <c r="H19" t="n">
-        <v>188.6783112973523</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y19" t="n">
-        <v>1230.99296709327</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,22 +5759,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5826,28 +5826,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1116.062450089081</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903951</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736201</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751428</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E22" t="n">
-        <v>462.79833832588</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F22" t="n">
-        <v>286.0912842876362</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2612.634176317975</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2366.75472989643</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2088.321729149536</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1801.366221019966</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461862</v>
+        <v>1529.339816606258</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1283.94806193967</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6063,10 +6063,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883923</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716173</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>473.31497337314</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6175,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2044.244603858373</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.57329640738</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,43 +6707,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324586</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405613</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>754.219347342084</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.295274783585</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,46 +7178,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>97.60290339162182</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
-        <v>422.1612283578341</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080664</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716799</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463123</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.329412385016</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882666</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,7 +7348,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
         <v>2842.813139461497</v>
@@ -7357,10 +7357,10 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
@@ -7375,7 +7375,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7415,22 +7415,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7485,25 +7485,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.60290339162182</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J42" t="n">
-        <v>422.1612283578341</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1102.858548712408</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1102.858548712408</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1102.858548712408</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1102.858548712408</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1102.858548712408</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7549,16 +7549,16 @@
         <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7634,7 +7634,7 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7652,16 +7652,16 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M44" t="n">
-        <v>3599.279484550324</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N44" t="n">
-        <v>4162.682333079241</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O44" t="n">
-        <v>4162.682333079241</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
         <v>4162.682333079241</v>
@@ -7673,7 +7673,7 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7691,7 +7691,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.60290339162182</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>422.1612283578341</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7783,13 +7783,13 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936665</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080651</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>560.7746902324309</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060609</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.25748950982188</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>38.14356901580679</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>384.4104887602591</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>393.1716474332622</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1900428685072</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685071</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685072</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920757</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685071</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679276</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>911.7999282395383</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>693.2484440596963</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>911.7999282395384</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>911.7999282395385</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>391.9624069373049</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>687.6096162327044</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.74406431761213</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>288.7351832965068</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>779.6755805253165</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9474,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>655.9981329904112</v>
+        <v>779.6755805253165</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763903</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949897315</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949897315</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,19 +11300,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>569.0937863928461</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949897315</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -11379,7 +11379,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>25.70400559879047</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>358.2556936137528</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>96.56253959275426</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>69.71657238081349</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>110.0349065174852</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>212.1323395461466</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>102.9863699957349</v>
       </c>
       <c r="I19" t="n">
-        <v>2.220053416764515</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>120.4463752142718</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>52.42554389793568</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>8.789189859683688</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,10 +25360,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T37" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>780127.5910167699</v>
+        <v>796693.6916602902</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>780127.5910167699</v>
+        <v>797587.6938975041</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>786437.2926279182</v>
+        <v>797587.6938975041</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642632.9276833977</v>
+        <v>642632.9276833978</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818501.2904468295</v>
+        <v>818501.2904468296</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818501.2904468296</v>
+        <v>818501.2904468295</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818501.2904468295</v>
+        <v>818501.2904468296</v>
       </c>
     </row>
     <row r="14">
@@ -26314,19 +26314,19 @@
         <v>201055.2449589032</v>
       </c>
       <c r="C2" t="n">
-        <v>201055.2449589031</v>
+        <v>201055.2449589032</v>
       </c>
       <c r="D2" t="n">
         <v>201055.2449589032</v>
       </c>
       <c r="E2" t="n">
-        <v>155120.112080805</v>
+        <v>155120.1120808051</v>
       </c>
       <c r="F2" t="n">
         <v>197571.5940515071</v>
       </c>
       <c r="G2" t="n">
-        <v>197571.5940515071</v>
+        <v>197571.594051507</v>
       </c>
       <c r="H2" t="n">
         <v>197571.5940515071</v>
@@ -26350,10 +26350,10 @@
         <v>201055.2449589031</v>
       </c>
       <c r="O2" t="n">
-        <v>201055.2449589032</v>
+        <v>201055.2449589031</v>
       </c>
       <c r="P2" t="n">
-        <v>201055.2449589032</v>
+        <v>201055.2449589031</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797196</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928948863</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477439</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543117</v>
+        <v>72938.0436153442</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540556</v>
+        <v>105000.4827540554</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877638</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375078</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401264</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.3818740024</v>
+        <v>60876.72976950155</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716044</v>
+        <v>88373.14763716038</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>175845.657171999</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>198287.1746360587</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
         <v>74492.26210185928</v>
       </c>
       <c r="F4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="G4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="G4" t="n">
-        <v>94878.44464875292</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
@@ -26439,13 +26439,13 @@
         <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
@@ -26457,7 +26457,7 @@
         <v>107302.2988178706</v>
       </c>
       <c r="P4" t="n">
-        <v>107302.2988178705</v>
+        <v>107302.2988178706</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.3543699685</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640524</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696392</v>
+        <v>55437.43563696394</v>
       </c>
       <c r="F5" t="n">
+        <v>77718.23860579249</v>
+      </c>
+      <c r="G5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="G5" t="n">
-        <v>77718.23860579252</v>
-      </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,7 +26503,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608971</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-212653.963275247</v>
+        <v>-267772.0252627839</v>
       </c>
       <c r="C6" t="n">
-        <v>-70462.66261553709</v>
+        <v>-51070.16179824645</v>
       </c>
       <c r="D6" t="n">
-        <v>-89303.25507833518</v>
+        <v>-47046.81486929754</v>
       </c>
       <c r="E6" t="n">
-        <v>-94124.30601232985</v>
+        <v>-48053.86349254967</v>
       </c>
       <c r="F6" t="n">
-        <v>-80025.57195709388</v>
+        <v>-80048.79629647636</v>
       </c>
       <c r="G6" t="n">
-        <v>24974.91079696163</v>
+        <v>24951.68645757901</v>
       </c>
       <c r="H6" t="n">
-        <v>24974.91079696166</v>
+        <v>24951.68645757906</v>
       </c>
       <c r="I6" t="n">
-        <v>24974.91079696169</v>
+        <v>24951.68645757905</v>
       </c>
       <c r="J6" t="n">
-        <v>-86039.55454802855</v>
+        <v>-146441.2899301848</v>
       </c>
       <c r="K6" t="n">
-        <v>24974.91079696167</v>
+        <v>21746.56511020398</v>
       </c>
       <c r="L6" t="n">
-        <v>2729.683532949042</v>
+        <v>24951.68645757906</v>
       </c>
       <c r="M6" t="n">
-        <v>-74609.47107704071</v>
+        <v>-35925.0433119225</v>
       </c>
       <c r="N6" t="n">
-        <v>-70135.81622221755</v>
+        <v>-70135.81622221757</v>
       </c>
       <c r="O6" t="n">
-        <v>18237.33141494292</v>
+        <v>18237.33141494285</v>
       </c>
       <c r="P6" t="n">
-        <v>18237.33141494292</v>
+        <v>18237.33141494285</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685072</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395382</v>
+        <v>911.7999282395384</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179618</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840289</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710309</v>
+        <v>244.2847216316815</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452069</v>
+        <v>366.4605751452065</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179618</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840289</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710309</v>
+        <v>244.2847216316815</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081846</v>
+        <v>307.7838677081844</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179618</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840289</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710309</v>
+        <v>244.2847216316815</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452069</v>
+        <v>366.4605751452065</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>164.0831698541445</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27546,16 +27546,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>81.91841970071488</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.64415899774477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>124.9507141550199</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>67.88420416844608</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>201.9333177378961</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>255.4435005407428</v>
+        <v>53.07022658020554</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>48.99846057033491</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-3.773323230679365e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>560.7746902324309</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060609</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.25748950982188</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>38.14356901580679</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>384.4104887602591</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34945,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>393.1716474332622</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1900428685072</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685071</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685072</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920757</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685071</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679276</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>911.7999282395383</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>693.2484440596963</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>911.7999282395384</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>911.7999282395385</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>391.9624069373049</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>687.6096162327044</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.74406431761213</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>288.7351832965068</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>779.6755805253165</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,13 +36212,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>655.9981329904112</v>
+        <v>779.6755805253165</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37075,7 +37075,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763903</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949897315</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
         <v>186.1274021209015</v>
@@ -37783,7 +37783,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949897315</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,19 +38020,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>569.0937863928461</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949897315</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
